--- a/biology/Botanique/Dipterocarpus_baudii/Dipterocarpus_baudii.xlsx
+++ b/biology/Botanique/Dipterocarpus_baudii/Dipterocarpus_baudii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Dipterocarpus baudii est un arbre sempervirent originaire des forêts humides des plaines d'Asie du sud-est, de la famille des Diptérocarpacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dipterocarpus duperreana Pierre
 Dipterocarpus scortechinii King
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,7 +587,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Forêts de basse altitude au Cambodge, Myanmar, Thaïlande, Viêt-Nam, Malaisie et Sumatra.
 </t>
@@ -602,7 +620,9 @@
           <t>Préservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En danger critique de disparition du fait de la déforestation.
 </t>
